--- a/doc/excel/党建/[sample_member_outSchool]党员信息（校外人员）录入样表.xlsx
+++ b/doc/excel/党建/[sample_member_outSchool]党员信息（校外人员）录入样表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\廖敏工作文件夹\全部高校\组工一体化平台数据录入样表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\党建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1898EBB-054F-40ED-9573-AA2EFF8E9744}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1785" windowWidth="26670" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1785" windowWidth="26670" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>min liaom</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2787955C-0BD9-403B-8ED5-9CB1D97C8C89}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{3792E264-7557-4B51-AB6B-562636374BC0}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{CB0BA91A-DAD8-4317-B4C6-C7D08E48777B}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{AB207642-7A40-4AA7-8FB5-B169A25B2FA1}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{5FE6F389-5970-4FA1-82E2-2D0CA4564E43}">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{A0150E24-9548-4245-A053-4517597BA7C0}">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{CED61E20-D140-4BC1-92E6-F4B93CE039DA}">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{4B12DE3A-71A4-493F-86C3-A49F819AB717}">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{6606FE5E-9D1C-46A2-BDE1-731A20AF2103}">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,8 +454,8 @@
       <t xml:space="preserve">
 2、请按字段批注填写，字段及字段顺序请勿删除或调整。
 3、标红字段必须填写完整，其中工作证号需要先在组工系统内注册或分党委管理员添加账号。
-4、分党委编码和党支部编码，请与组工系统内的编码保持一致。在组工系统内，组织部管理员可以添加分党委，分党委管理员及支部管理员可以添加党支部。
-5、导入前请删除第一行样表数据和此注意事项，然后提交给组织部党建管理员进行导入操作。</t>
+4、分党委编码和党支部编码，请与组工系统内的编码保持一致。
+5、导入前请删除第一行样表数据和此注意事项。</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -464,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,18 +609,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,23 +711,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -764,23 +746,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -956,12 +921,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M11" sqref="M11"/>
+      <selection pane="topRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1258,187 +1223,187 @@
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="AH11" s="6"/>
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="AH12" s="6"/>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="AH13" s="6"/>
     </row>
     <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="AH14" s="6"/>
     </row>
     <row r="15" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="AH15" s="6"/>
     </row>
     <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="AH16" s="6"/>
     </row>
     <row r="17" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="AH17" s="6"/>
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="AH18" s="6"/>
     </row>
     <row r="19" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="AH19" s="6"/>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1514,13 +1479,13 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVU2:WVU4 JI2:JI4 TE2:TE4 ADA2:ADA4 AMW2:AMW4 AWS2:AWS4 BGO2:BGO4 BQK2:BQK4 CAG2:CAG4 CKC2:CKC4 CTY2:CTY4 DDU2:DDU4 DNQ2:DNQ4 DXM2:DXM4 EHI2:EHI4 ERE2:ERE4 FBA2:FBA4 FKW2:FKW4 FUS2:FUS4 GEO2:GEO4 GOK2:GOK4 GYG2:GYG4 HIC2:HIC4 HRY2:HRY4 IBU2:IBU4 ILQ2:ILQ4 IVM2:IVM4 JFI2:JFI4 JPE2:JPE4 JZA2:JZA4 KIW2:KIW4 KSS2:KSS4 LCO2:LCO4 LMK2:LMK4 LWG2:LWG4 MGC2:MGC4 MPY2:MPY4 MZU2:MZU4 NJQ2:NJQ4 NTM2:NTM4 ODI2:ODI4 ONE2:ONE4 OXA2:OXA4 PGW2:PGW4 PQS2:PQS4 QAO2:QAO4 QKK2:QKK4 QUG2:QUG4 REC2:REC4 RNY2:RNY4 RXU2:RXU4 SHQ2:SHQ4 SRM2:SRM4 TBI2:TBI4 TLE2:TLE4 TVA2:TVA4 UEW2:UEW4 UOS2:UOS4 UYO2:UYO4 VIK2:VIK4 VSG2:VSG4 WCC2:WCC4 WLY2:WLY4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVU2:WVU4 JI2:JI4 TE2:TE4 ADA2:ADA4 AMW2:AMW4 AWS2:AWS4 BGO2:BGO4 BQK2:BQK4 CAG2:CAG4 CKC2:CKC4 CTY2:CTY4 DDU2:DDU4 DNQ2:DNQ4 DXM2:DXM4 EHI2:EHI4 ERE2:ERE4 FBA2:FBA4 FKW2:FKW4 FUS2:FUS4 GEO2:GEO4 GOK2:GOK4 GYG2:GYG4 HIC2:HIC4 HRY2:HRY4 IBU2:IBU4 ILQ2:ILQ4 IVM2:IVM4 JFI2:JFI4 JPE2:JPE4 JZA2:JZA4 KIW2:KIW4 KSS2:KSS4 LCO2:LCO4 LMK2:LMK4 LWG2:LWG4 MGC2:MGC4 MPY2:MPY4 MZU2:MZU4 NJQ2:NJQ4 NTM2:NTM4 ODI2:ODI4 ONE2:ONE4 OXA2:OXA4 PGW2:PGW4 PQS2:PQS4 QAO2:QAO4 QKK2:QKK4 QUG2:QUG4 REC2:REC4 RNY2:RNY4 RXU2:RXU4 SHQ2:SHQ4 SRM2:SRM4 TBI2:TBI4 TLE2:TLE4 TVA2:TVA4 UEW2:UEW4 UOS2:UOS4 UYO2:UYO4 VIK2:VIK4 VSG2:VSG4 WCC2:WCC4 WLY2:WLY4">
       <formula1>"申请入党人员,入党积极分子,发展对象"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{3C632017-1135-418B-8A19-9F7C90EE18D8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{465507E7-54AF-43C6-AA3F-21E94E2A36CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
       <formula1>"预备党员,正式党员"</formula1>
     </dataValidation>
   </dataValidations>
